--- a/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
+++ b/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:31+00:00</t>
+    <t>2025-07-24T13:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
+++ b/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:25:54+00:00</t>
+    <t>2025-07-24T13:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
+++ b/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:38:04+00:00</t>
+    <t>2025-07-24T13:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
+++ b/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:40:14+00:00</t>
+    <t>2025-07-24T13:39:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
+++ b/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:39:58+00:00</t>
+    <t>2025-07-24T13:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
+++ b/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:47:13+00:00</t>
+    <t>2025-07-24T13:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
+++ b/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:47:46+00:00</t>
+    <t>2025-07-24T13:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
+++ b/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:49:36+00:00</t>
+    <t>2025-07-24T13:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
+++ b/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:51:56+00:00</t>
+    <t>2025-07-24T14:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
+++ b/nr-update/ig/ValueSet-surspecialiteTransversale-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T14:03:43+00:00</t>
+    <t>2025-07-25T12:19:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
